--- a/1차_가공/경희대학교 서울캠퍼스 22년 1학기 1차 가공 완료.xlsx
+++ b/1차_가공/경희대학교 서울캠퍼스 22년 1학기 1차 가공 완료.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20092" uniqueCount="7269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20094" uniqueCount="7269">
   <si>
     <t>대학교명</t>
   </si>
@@ -8701,7 +8701,7 @@
     <t>특수교육학개론</t>
   </si>
   <si>
-    <t>학교폭력 예방 및 학생의 이해</t>
+    <t>학교폭력예방및학생의이해</t>
   </si>
   <si>
     <t>학교현장실습</t>
@@ -10483,7 +10483,7 @@
     <t>춤으로만나는한류,K-POP댄스</t>
   </si>
   <si>
-    <t>클래식기타의 연주와 감상</t>
+    <t>클래식기타의연주와감상</t>
   </si>
   <si>
     <t>클래식음악산책</t>
@@ -10507,7 +10507,7 @@
     <t>고전읽기:김수영</t>
   </si>
   <si>
-    <t>고전읽기:노자 장자</t>
+    <t>고전읽기:노자장자</t>
   </si>
   <si>
     <t>고전읽기:논어</t>
@@ -11500,16 +11500,16 @@
     <t>미정</t>
   </si>
   <si>
-    <t>이우인 / 강소영 / 박태성 / 김명희 / 조선영 / 김영진</t>
-  </si>
-  <si>
-    <t>양웅모 / 조익현</t>
+    <t>이우인,강소영,박태성,김명희,조선영,김영진</t>
+  </si>
+  <si>
+    <t>양웅모,조익현</t>
   </si>
   <si>
     <t>심범상</t>
   </si>
   <si>
-    <t>김호철 / 부영민 / 이경진 / 송정빈</t>
+    <t>김호철,부영민,이경진,송정빈</t>
   </si>
   <si>
     <t>이준희</t>
@@ -11527,61 +11527,61 @@
     <t>유승형</t>
   </si>
   <si>
-    <t>박히준 / 이향숙</t>
+    <t>박히준,이향숙</t>
   </si>
   <si>
     <t>김양석</t>
   </si>
   <si>
-    <t>김병성 / 원장원 / 김선영</t>
-  </si>
-  <si>
-    <t>이미숙 / 손준성 / 박기호 / 문수연</t>
+    <t>김병성,원장원,김선영</t>
+  </si>
+  <si>
+    <t>이미숙,손준성,박기호,문수연</t>
   </si>
   <si>
     <t>박성진</t>
   </si>
   <si>
-    <t>허영범 / 권세환 / 박성진 / 문성경 / 박소영 / 박기호 / 강경중 / 이경미 / 신소연 / 이영찬 / 김상훈 / 민진영 / 김진숙</t>
-  </si>
-  <si>
-    <t>양형인 / 홍승재 / 이상훈 / 이연아 / 송란</t>
-  </si>
-  <si>
-    <t>이봉재 / 강종만 / 박성욱 / 김미경 / 정준영 / 한진희 / 최정현 / 서형석 / 강희용</t>
-  </si>
-  <si>
-    <t>공문규 / 임유진</t>
-  </si>
-  <si>
-    <t>성지연 / 나기용</t>
-  </si>
-  <si>
-    <t>장성구 / 이선주 / 이형래 / 전승현 / 민경은 / 이동기 / 이상협</t>
-  </si>
-  <si>
-    <t>강상윤 / 범진식</t>
-  </si>
-  <si>
-    <t>고준석 / 박봉진 / 김승범 / 최석근 / 조대진 / 이승환 / 신희섭 / 이준호 / 박창규 / 유지욱</t>
-  </si>
-  <si>
-    <t>유승영 / 박인기 / 강자헌 / 문상웅 / 신재호 / 김응석 / 김태기</t>
-  </si>
-  <si>
-    <t>유경남 / 장건호 / 임주원 / 김광표 / 오주형 / 진욱 / 박성진 / 문성경 / 박순찬 / 이한나 / 서미리내 / 유명원</t>
+    <t>허영범,권세환,박성진,문성경,박소영,박기호,강경중,이경미,신소연,이영찬,김상훈,민진영,김진숙</t>
+  </si>
+  <si>
+    <t>양형인,홍승재,이상훈,이연아,송란</t>
+  </si>
+  <si>
+    <t>이봉재,강종만,박성욱,김미경,정준영,한진희,최정현,서형석,강희용</t>
+  </si>
+  <si>
+    <t>공문규,임유진</t>
+  </si>
+  <si>
+    <t>성지연,나기용</t>
+  </si>
+  <si>
+    <t>장성구,이선주,이형래,전승현,민경은,이동기,이상협</t>
+  </si>
+  <si>
+    <t>강상윤,범진식</t>
+  </si>
+  <si>
+    <t>고준석,박봉진,김승범,최석근,조대진,이승환,신희섭,이준호,박창규,유지욱</t>
+  </si>
+  <si>
+    <t>유승영,박인기,강자헌,문상웅,신재호,김응석,김태기</t>
+  </si>
+  <si>
+    <t>유경남,장건호,임주원,김광표,오주형,진욱,박성진,문성경,박순찬,이한나,서미리내,유명원</t>
   </si>
   <si>
     <t>박소연</t>
   </si>
   <si>
-    <t>김성완 / 여승근 / 변재용 / 이건희 / 은영규 / 이영찬 / 민진영</t>
+    <t>김성완,여승근,변재용,이건희,은영규,이영찬,민진영</t>
   </si>
   <si>
     <t>문은경</t>
   </si>
   <si>
-    <t>류재환 / 심인섭 / 인창식</t>
+    <t>류재환,심인섭,인창식</t>
   </si>
   <si>
     <t>조세형</t>
@@ -11590,22 +11590,22 @@
     <t>우정택</t>
   </si>
   <si>
-    <t>유승영 / 박인기 / 강자헌 / 문상웅 / 신재호 / 김응석</t>
-  </si>
-  <si>
-    <t>김희상 / 이종하 / 유승돈 / 윤동환 / 김동환 / 이승아</t>
-  </si>
-  <si>
-    <t>이석환 / 어완규 / 이미숙 / 윤회수 / 정원규 / 백선경 / 맹치훈 / 강원섭 / 김홍준</t>
-  </si>
-  <si>
-    <t>윤태영 / 최봉근 / 오인환 / 오창모</t>
-  </si>
-  <si>
-    <t>심우영 / 유박린 / 신민경 / 정기헌 / 권순효</t>
-  </si>
-  <si>
-    <t>김범식 / 김수철 / 김대현 / 윤효철</t>
+    <t>유승영,박인기,강자헌,문상웅,신재호,김응석</t>
+  </si>
+  <si>
+    <t>김희상,이종하,유승돈,윤동환,김동환,이승아</t>
+  </si>
+  <si>
+    <t>이석환,어완규,이미숙,윤회수,정원규,백선경,맹치훈,강원섭,김홍준</t>
+  </si>
+  <si>
+    <t>윤태영,최봉근,오인환,오창모</t>
+  </si>
+  <si>
+    <t>심우영,유박린,신민경,정기헌,권순효</t>
+  </si>
+  <si>
+    <t>김범식,김수철,김대현,윤효철</t>
   </si>
   <si>
     <t>윤태영</t>
@@ -11617,43 +11617,43 @@
     <t>류재인</t>
   </si>
   <si>
-    <t>강수경 / 이연희</t>
-  </si>
-  <si>
-    <t>김성진 / 권긍록 / 강경리 / 문지회 / 박준봉</t>
+    <t>강수경,이연희</t>
+  </si>
+  <si>
+    <t>김성진,권긍록,강경리,문지회,박준봉</t>
   </si>
   <si>
     <t>김규태</t>
   </si>
   <si>
-    <t>권용대 / 최병준</t>
+    <t>권용대,최병준</t>
   </si>
   <si>
     <t>권긍록</t>
   </si>
   <si>
-    <t>어규식 / 이연희</t>
-  </si>
-  <si>
-    <t>이석원 / 노관태 / 백장현</t>
-  </si>
-  <si>
-    <t>문지회 / 장석우 / 장지현 / 이진규 / 오소람</t>
-  </si>
-  <si>
-    <t>최성철 / 이효설 / 남옥형 / 김미선</t>
-  </si>
-  <si>
-    <t>김규태 / 박기호 / 장석우 / 오주영 / 노관태 / 강수경 / 이효설 / 류재인 / 홍지연</t>
-  </si>
-  <si>
-    <t>최경규 / 김형섭 / 배아란</t>
+    <t>어규식,이연희</t>
+  </si>
+  <si>
+    <t>이석원,노관태,백장현</t>
+  </si>
+  <si>
+    <t>문지회,장석우,장지현,이진규,오소람</t>
+  </si>
+  <si>
+    <t>최성철,이효설,남옥형,김미선</t>
+  </si>
+  <si>
+    <t>김규태,박기호,장석우,오주영,노관태,강수경,이효설,류재인,홍지연</t>
+  </si>
+  <si>
+    <t>최경규,김형섭,배아란</t>
   </si>
   <si>
     <t>황의환</t>
   </si>
   <si>
-    <t>권긍록 / 노관태 / 백장현</t>
+    <t>권긍록,노관태,백장현</t>
   </si>
   <si>
     <t>김수정</t>
@@ -11665,19 +11665,19 @@
     <t>이성복</t>
   </si>
   <si>
-    <t>최경규 / 김형섭 / 배아란 / 홍성진</t>
-  </si>
-  <si>
-    <t>허익 / 강경리 / 정종혁 / 신승일 / 신승윤 / 홍지연 / 임현창</t>
-  </si>
-  <si>
-    <t>홍지연 / 임현창</t>
-  </si>
-  <si>
-    <t>허영범 / 박찬 / 정주원 / 정준양 / 김도경</t>
-  </si>
-  <si>
-    <t>황의환 / 김성진 / 최경규 / 어규식 / 문지회 / 김정목 / 권용대 / 정종혁 / 최성철 / 신승일 / 배아란 / 김성훈 / 노대현 / 신승윤 / 임호남</t>
+    <t>최경규,김형섭,배아란,홍성진</t>
+  </si>
+  <si>
+    <t>허익,강경리,정종혁,신승일,신승윤,홍지연,임현창</t>
+  </si>
+  <si>
+    <t>홍지연,임현창</t>
+  </si>
+  <si>
+    <t>허영범,박찬,정주원,정준양,김도경</t>
+  </si>
+  <si>
+    <t>황의환,김성진,최경규,어규식,문지회,김정목,권용대,정종혁,최성철,신승일,배아란,김성훈,노대현,신승윤,임호남</t>
   </si>
   <si>
     <t>주인경</t>
@@ -11725,7 +11725,7 @@
     <t>최선미</t>
   </si>
   <si>
-    <t>박명숙 / 박민정</t>
+    <t>박명숙,박민정</t>
   </si>
   <si>
     <t>정세훈</t>
@@ -11740,7 +11740,7 @@
     <t>강호선</t>
   </si>
   <si>
-    <t>윤진원 / 김태형</t>
+    <t>윤진원,김태형</t>
   </si>
   <si>
     <t>이윤정</t>
@@ -11761,13 +11761,13 @@
     <t>김태현</t>
   </si>
   <si>
-    <t>김태형 / 강호선</t>
-  </si>
-  <si>
-    <t>김태형 / 박유신</t>
-  </si>
-  <si>
-    <t>김태형 / 한지희</t>
+    <t>김태형,강호선</t>
+  </si>
+  <si>
+    <t>김태형,박유신</t>
+  </si>
+  <si>
+    <t>김태형,한지희</t>
   </si>
   <si>
     <t>임효선</t>
@@ -11791,7 +11791,7 @@
     <t>이의진</t>
   </si>
   <si>
-    <t>김태형 / 전현주</t>
+    <t>김태형,전현주</t>
   </si>
   <si>
     <t>신상근</t>
@@ -11926,25 +11926,25 @@
     <t>김일수</t>
   </si>
   <si>
-    <t>고인태 / 전영석</t>
-  </si>
-  <si>
-    <t>고인태 / 김성호</t>
-  </si>
-  <si>
-    <t>고인태 / 강창균</t>
+    <t>고인태,전영석</t>
+  </si>
+  <si>
+    <t>고인태,김성호</t>
+  </si>
+  <si>
+    <t>고인태,강창균</t>
   </si>
   <si>
     <t>박성희</t>
   </si>
   <si>
-    <t>이재복 / 박진우</t>
-  </si>
-  <si>
-    <t>고인태 / 이재복</t>
-  </si>
-  <si>
-    <t>이재복 / 김성호</t>
+    <t>이재복,박진우</t>
+  </si>
+  <si>
+    <t>고인태,이재복</t>
+  </si>
+  <si>
+    <t>이재복,김성호</t>
   </si>
   <si>
     <t>원유미</t>
@@ -11953,13 +11953,13 @@
     <t>김성호</t>
   </si>
   <si>
-    <t>박진우 / 이수경</t>
-  </si>
-  <si>
-    <t>고인태 / 박진우</t>
-  </si>
-  <si>
-    <t>김성호 / 박진우</t>
+    <t>박진우,이수경</t>
+  </si>
+  <si>
+    <t>고인태,박진우</t>
+  </si>
+  <si>
+    <t>김성호,박진우</t>
   </si>
   <si>
     <t>김유진</t>
@@ -11974,7 +11974,7 @@
     <t>이지설</t>
   </si>
   <si>
-    <t>김남일 / 김태우</t>
+    <t>김남일,김태우</t>
   </si>
   <si>
     <t>이향숙</t>
@@ -11986,34 +11986,34 @@
     <t>김태훈</t>
   </si>
   <si>
-    <t>김남일 / 차웅석 / 김태우</t>
-  </si>
-  <si>
-    <t>이장훈 / 김영철 / 장은경</t>
-  </si>
-  <si>
-    <t>임사비나 / 채윤병 / 이인선</t>
+    <t>김남일,차웅석,김태우</t>
+  </si>
+  <si>
+    <t>이장훈,김영철,장은경</t>
+  </si>
+  <si>
+    <t>임사비나,채윤병,이인선</t>
   </si>
   <si>
     <t>함대현</t>
   </si>
   <si>
-    <t>고성규 / 전천후</t>
-  </si>
-  <si>
-    <t>김진성 / 한가진 / 고석재</t>
-  </si>
-  <si>
-    <t>장규태 / 이선행</t>
-  </si>
-  <si>
-    <t>김종우 / 정선용 / 조성훈 / 김윤나</t>
-  </si>
-  <si>
-    <t>안세영 / 안영민</t>
-  </si>
-  <si>
-    <t>조기호 / 고창남 / 문상관 / 정우상 / 박성욱 / 박정미 / 조승연 / 권승원</t>
+    <t>고성규,전천후</t>
+  </si>
+  <si>
+    <t>김진성,한가진,고석재</t>
+  </si>
+  <si>
+    <t>장규태,이선행</t>
+  </si>
+  <si>
+    <t>김종우,정선용,조성훈,김윤나</t>
+  </si>
+  <si>
+    <t>안세영,안영민</t>
+  </si>
+  <si>
+    <t>조기호,고창남,문상관,정우상,박성욱,박정미,조승연,권승원</t>
   </si>
   <si>
     <t>남혜정</t>
@@ -12025,7 +12025,7 @@
     <t>류재환</t>
   </si>
   <si>
-    <t>조재흥 / 김고운</t>
+    <t>조재흥,김고운</t>
   </si>
   <si>
     <t>김현호</t>
@@ -12037,10 +12037,10 @@
     <t>조재흥</t>
   </si>
   <si>
-    <t>정희재 / 이범준</t>
-  </si>
-  <si>
-    <t>김윤범 / 김규석</t>
+    <t>정희재,이범준</t>
+  </si>
+  <si>
+    <t>김윤범,김규석</t>
   </si>
   <si>
     <t>김중배</t>
@@ -12049,22 +12049,22 @@
     <t>장우창</t>
   </si>
   <si>
-    <t>김남일 / 차웅석</t>
-  </si>
-  <si>
-    <t>엄재영 / 박진봉</t>
+    <t>김남일,차웅석</t>
+  </si>
+  <si>
+    <t>엄재영,박진봉</t>
   </si>
   <si>
     <t>이은옥</t>
   </si>
   <si>
-    <t>김남일 / 백유상 / 김종우 / 김태우</t>
+    <t>김남일,백유상,김종우,김태우</t>
   </si>
   <si>
     <t>손영주</t>
   </si>
   <si>
-    <t>신용철 / 이화진</t>
+    <t>신용철,이화진</t>
   </si>
   <si>
     <t>강현선</t>
@@ -12076,7 +12076,7 @@
     <t>이서현</t>
   </si>
   <si>
-    <t>윤진원 / 김희재</t>
+    <t>윤진원,김희재</t>
   </si>
   <si>
     <t>정우진</t>
@@ -12094,142 +12094,142 @@
     <t>최서희</t>
   </si>
   <si>
-    <t>윤태영 / 김병성 / 원장원 / 오인환 / 맹치훈 / 김선영</t>
-  </si>
-  <si>
-    <t>송지영 / 반건호 / 조아랑 / 김종우 / 백종우 / 박진경</t>
-  </si>
-  <si>
-    <t>이우인 / 어완규 / 박영실 / 박태성 / 윤회수 / 한재준 / 나기용</t>
+    <t>윤태영,김병성,원장원,오인환,맹치훈,김선영</t>
+  </si>
+  <si>
+    <t>송지영,반건호,조아랑,김종우,백종우,박진경</t>
+  </si>
+  <si>
+    <t>이우인,어완규,박영실,박태성,윤회수,한재준,나기용</t>
   </si>
   <si>
     <t>강상욱</t>
   </si>
   <si>
-    <t>이장훈 / 김영철</t>
-  </si>
-  <si>
-    <t>장준복 / 이창훈 / 이진무 / 황덕상</t>
-  </si>
-  <si>
-    <t>윤상협 / 김진성 / 박재우 / 고석재</t>
-  </si>
-  <si>
-    <t>이의주 / 이준희 / 황민우</t>
-  </si>
-  <si>
-    <t>김종우 / 정선용 / 조성훈</t>
-  </si>
-  <si>
-    <t>안세영 / 안영민 / 이병철</t>
-  </si>
-  <si>
-    <t>김윤범 / 남혜정 / 김규석</t>
-  </si>
-  <si>
-    <t>송미연 / 정원석 / 조재흥</t>
-  </si>
-  <si>
-    <t>이재동 / 김용석 / 김종인 / 강중원 / 이승훈</t>
-  </si>
-  <si>
-    <t>이재동 / 김용석 / 남상수 / 백용현 / 김종인 / 남동우 / 강중원 / 서병관 / 박연철 / 이승훈</t>
-  </si>
-  <si>
-    <t>장우창 / 안진희</t>
-  </si>
-  <si>
-    <t>백유상 / 안진희</t>
-  </si>
-  <si>
-    <t>인창식 / 이상훈 / 이현일</t>
-  </si>
-  <si>
-    <t>윤성상 / 이미숙 / 손준성 / 윤회수 / 김명희 / 박기호 / 문수연 / 김영진</t>
-  </si>
-  <si>
-    <t>김창주 / 백형환 / 허영범 / 조영욱 / 윤경식 / 김영미 / 박찬 / 조세형 / 윤태영 / 진영호 / 박강식 / 오범석 / 이병대 / 정준양 / 김성현 / 김도경 / 김성수</t>
-  </si>
-  <si>
-    <t>우정택 / 김덕윤 / 오승준 / 안규정 / 정인경 / 정호연 / 전숙 / 황유철 / 홍일기 / 이상열 / 진상욱</t>
-  </si>
-  <si>
-    <t>이보연 / 임주원 / 유은희 / 정민형 / 설현주 / 권병수 / 김영선</t>
-  </si>
-  <si>
-    <t>나영호 / 심계식 / 박영실 / 최선희 / 윤회수 / 최용성 / 이은혜 / 정성훈</t>
-  </si>
-  <si>
-    <t>김효종 / 이길연 / 이석환 / 최성일 / 김현철 / 양달모 / 김용호 / 장재영 / 차재명 / 이창균 / 문성경 / 공문규 / 전정원 / 맹치훈 / 김정욱 / 곽민섭 / 윤진영</t>
-  </si>
-  <si>
-    <t>장대일 / 윤성상 / 안태범 / 박기정 / 신원철 / 김상범 / 허성혁 / 이학영 / 최혜연 / 황경진 / 변정익 / 이진산 / 우호걸</t>
-  </si>
-  <si>
-    <t>이상호 / 문주영 / 정경환 / 김양균 / 황현석 / 김진숙</t>
-  </si>
-  <si>
-    <t>유경남 / 임주원 / 오주형 / 김의종 / 박지선 / 김현철 / 양달모 / 진욱 / 류창우 / 류정규 / 손유미 / 권세환 / 박성진 / 김상원 / 문성경 / 박순찬 / 김정임 / 이경미 / 신소연 / 이한나 / 서미리내 / 유명원</t>
-  </si>
-  <si>
-    <t>이상목 / 이길연 / 이석환 / 최성일 / 김용호 / 송정윤 / 안형준 / 김범수 / 손유미 / 조진현 / 박선진 / 범진식 / 민선영 / 박민수 / 한상아 / 장혜경</t>
-  </si>
-  <si>
-    <t>김명천 / 홍훈표 / 최한성 / 이종석 / 정웅 / 정기영</t>
+    <t>이장훈,김영철</t>
+  </si>
+  <si>
+    <t>장준복,이창훈,이진무,황덕상</t>
+  </si>
+  <si>
+    <t>윤상협,김진성,박재우,고석재</t>
+  </si>
+  <si>
+    <t>이의주,이준희,황민우</t>
+  </si>
+  <si>
+    <t>김종우,정선용,조성훈</t>
+  </si>
+  <si>
+    <t>안세영,안영민,이병철</t>
+  </si>
+  <si>
+    <t>김윤범,남혜정,김규석</t>
+  </si>
+  <si>
+    <t>송미연,정원석,조재흥</t>
+  </si>
+  <si>
+    <t>이재동,김용석,김종인,강중원,이승훈</t>
+  </si>
+  <si>
+    <t>이재동,김용석,남상수,백용현,김종인,남동우,강중원,서병관,박연철,이승훈</t>
+  </si>
+  <si>
+    <t>장우창,안진희</t>
+  </si>
+  <si>
+    <t>백유상,안진희</t>
+  </si>
+  <si>
+    <t>인창식,이상훈,이현일</t>
+  </si>
+  <si>
+    <t>윤성상,이미숙,손준성,윤회수,김명희,박기호,문수연,김영진</t>
+  </si>
+  <si>
+    <t>김창주,백형환,허영범,조영욱,윤경식,김영미,박찬,조세형,윤태영,진영호,박강식,오범석,이병대,정준양,김성현,김도경,김성수</t>
+  </si>
+  <si>
+    <t>우정택,김덕윤,오승준,안규정,정인경,정호연,전숙,황유철,홍일기,이상열,진상욱</t>
+  </si>
+  <si>
+    <t>이보연,임주원,유은희,정민형,설현주,권병수,김영선</t>
+  </si>
+  <si>
+    <t>나영호,심계식,박영실,최선희,윤회수,최용성,이은혜,정성훈</t>
+  </si>
+  <si>
+    <t>김효종,이길연,이석환,최성일,김현철,양달모,김용호,장재영,차재명,이창균,문성경,공문규,전정원,맹치훈,김정욱,곽민섭,윤진영</t>
+  </si>
+  <si>
+    <t>장대일,윤성상,안태범,박기정,신원철,김상범,허성혁,이학영,최혜연,황경진,변정익,이진산,우호걸</t>
+  </si>
+  <si>
+    <t>이상호,문주영,정경환,김양균,황현석,김진숙</t>
+  </si>
+  <si>
+    <t>유경남,임주원,오주형,김의종,박지선,김현철,양달모,진욱,류창우,류정규,손유미,권세환,박성진,김상원,문성경,박순찬,김정임,이경미,신소연,이한나,서미리내,유명원</t>
+  </si>
+  <si>
+    <t>이상목,이길연,이석환,최성일,김용호,송정윤,안형준,김범수,손유미,조진현,박선진,범진식,민선영,박민수,한상아,장혜경</t>
+  </si>
+  <si>
+    <t>김명천,홍훈표,최한성,이종석,정웅,정기영</t>
   </si>
   <si>
     <t>권오영</t>
   </si>
   <si>
-    <t>김기택 / 조윤제 / 윤경호 / 김강일 / 이정희 / 전영수 / 송상준 / 정비오 / 유기형 / 강경중 / 김용찬</t>
-  </si>
-  <si>
-    <t>허영범 / 박찬 / 정준양 / 김도경</t>
-  </si>
-  <si>
-    <t>어완규 / 백선경 / 맹치훈 / 한재준 / 김홍준</t>
-  </si>
-  <si>
-    <t>박명재 / 최천웅 / 김이형 / 이승현 / 장복순</t>
-  </si>
-  <si>
-    <t>권오영 / 박소연</t>
-  </si>
-  <si>
-    <t>하주헌 / 강인숙 / 최원재 / 김성수</t>
+    <t>김기택,조윤제,윤경호,김강일,이정희,전영수,송상준,정비오,유기형,강경중,김용찬</t>
+  </si>
+  <si>
+    <t>허영범,박찬,정준양,김도경</t>
+  </si>
+  <si>
+    <t>어완규,백선경,맹치훈,한재준,김홍준</t>
+  </si>
+  <si>
+    <t>박명재,최천웅,김이형,이승현,장복순</t>
+  </si>
+  <si>
+    <t>권오영,박소연</t>
+  </si>
+  <si>
+    <t>하주헌,강인숙,최원재,김성수</t>
   </si>
   <si>
     <t>오동인</t>
   </si>
   <si>
-    <t>오동인 / 우응제</t>
-  </si>
-  <si>
-    <t>오동인 / 이기자</t>
-  </si>
-  <si>
-    <t>오동인 / 김경숙</t>
-  </si>
-  <si>
-    <t>반건호 / 조아랑 / 김종우 / 백종우 / 박진경 / 강원섭</t>
-  </si>
-  <si>
-    <t>이성복 / 이석원</t>
+    <t>오동인,우응제</t>
+  </si>
+  <si>
+    <t>오동인,이기자</t>
+  </si>
+  <si>
+    <t>오동인,김경숙</t>
+  </si>
+  <si>
+    <t>반건호,조아랑,김종우,백종우,박진경,강원섭</t>
+  </si>
+  <si>
+    <t>이성복,이석원</t>
   </si>
   <si>
     <t>문지회</t>
   </si>
   <si>
-    <t>김정희 / 김정목</t>
-  </si>
-  <si>
-    <t>이백수 / 지유진 / 오주영</t>
+    <t>김정희,김정목</t>
+  </si>
+  <si>
+    <t>이백수,지유진,오주영</t>
   </si>
   <si>
     <t>최병준</t>
   </si>
   <si>
-    <t>김성진 / 이현우</t>
+    <t>김성진,이현우</t>
   </si>
   <si>
     <t>노대현</t>
@@ -12238,7 +12238,7 @@
     <t>최성철</t>
   </si>
   <si>
-    <t>최경규 / 김덕수 / 장지현</t>
+    <t>최경규,김덕수,장지현</t>
   </si>
   <si>
     <t>김덕수</t>
@@ -12250,16 +12250,16 @@
     <t>임호남</t>
   </si>
   <si>
-    <t>이효설 / 신제원</t>
+    <t>이효설,신제원</t>
   </si>
   <si>
     <t>신승일</t>
   </si>
   <si>
-    <t>허영범 / 박찬 / 김도경</t>
-  </si>
-  <si>
-    <t>황유식 / 이상천</t>
+    <t>허영범,박찬,김도경</t>
+  </si>
+  <si>
+    <t>황유식,이상천</t>
   </si>
   <si>
     <t>방재범</t>
@@ -12268,7 +12268,7 @@
     <t>이상천</t>
   </si>
   <si>
-    <t>허정선 / 이재형</t>
+    <t>허정선,이재형</t>
   </si>
   <si>
     <t>김은진</t>
@@ -12280,7 +12280,7 @@
     <t>임동순</t>
   </si>
   <si>
-    <t>이경태 / 최정혜</t>
+    <t>이경태,최정혜</t>
   </si>
   <si>
     <t>김남중</t>
@@ -12301,7 +12301,7 @@
     <t>구태영</t>
   </si>
   <si>
-    <t>김종호 / 박보영</t>
+    <t>김종호,박보영</t>
   </si>
   <si>
     <t>허영범</t>
@@ -12313,7 +12313,7 @@
     <t>장대식</t>
   </si>
   <si>
-    <t>정경숙 / 인경수</t>
+    <t>정경숙,인경수</t>
   </si>
   <si>
     <t>서혜선</t>
@@ -12322,7 +12322,7 @@
     <t>정은경</t>
   </si>
   <si>
-    <t>홍종기 / 김남중 / 이상민</t>
+    <t>홍종기,김남중,이상민</t>
   </si>
   <si>
     <t>최성숙</t>
@@ -12331,7 +12331,7 @@
     <t>홍종기</t>
   </si>
   <si>
-    <t>한승진 / 김병주</t>
+    <t>한승진,김병주</t>
   </si>
   <si>
     <t>최여진</t>
@@ -12352,10 +12352,10 @@
     <t>김연수</t>
   </si>
   <si>
-    <t>유병엽 / ..</t>
-  </si>
-  <si>
-    <t>이명근 / ..</t>
+    <t>유병엽,..</t>
+  </si>
+  <si>
+    <t>이명근,..</t>
   </si>
   <si>
     <t>어경준</t>
@@ -12394,7 +12394,7 @@
     <t>김지단</t>
   </si>
   <si>
-    <t>이아경 / 박경태</t>
+    <t>이아경,박경태</t>
   </si>
   <si>
     <t>신민정</t>
@@ -12409,7 +12409,7 @@
     <t>박준선</t>
   </si>
   <si>
-    <t>최선미 / 김은영</t>
+    <t>최선미,김은영</t>
   </si>
   <si>
     <t>김지향</t>
@@ -12469,13 +12469,13 @@
     <t>황지인</t>
   </si>
   <si>
-    <t>황지인 / 박석종</t>
-  </si>
-  <si>
-    <t>이지아 / 장애경</t>
-  </si>
-  <si>
-    <t>윤은경 / 변혜민</t>
+    <t>황지인,박석종</t>
+  </si>
+  <si>
+    <t>이지아,장애경</t>
+  </si>
+  <si>
+    <t>윤은경,변혜민</t>
   </si>
   <si>
     <t>유정희</t>
@@ -12490,40 +12490,40 @@
     <t>한정원</t>
   </si>
   <si>
-    <t>최지선 / 김애리</t>
-  </si>
-  <si>
-    <t>라인서 / 권은혜</t>
-  </si>
-  <si>
-    <t>석소현 / 이지아 / 신은영 / 한희영</t>
-  </si>
-  <si>
-    <t>한정원 / 이민선</t>
-  </si>
-  <si>
-    <t>신현숙 / 전혜진</t>
-  </si>
-  <si>
-    <t>신혜숙 / 김주희</t>
-  </si>
-  <si>
-    <t>김주희 / 강현진</t>
+    <t>최지선,김애리</t>
+  </si>
+  <si>
+    <t>라인서,권은혜</t>
+  </si>
+  <si>
+    <t>석소현,이지아,신은영,한희영</t>
+  </si>
+  <si>
+    <t>한정원,이민선</t>
+  </si>
+  <si>
+    <t>신현숙,전혜진</t>
+  </si>
+  <si>
+    <t>신혜숙,김주희</t>
+  </si>
+  <si>
+    <t>김주희,강현진</t>
   </si>
   <si>
     <t>신성희</t>
   </si>
   <si>
-    <t>신성희 / 백영숙</t>
-  </si>
-  <si>
-    <t>배나영 / 김인애 / 심인숙</t>
-  </si>
-  <si>
-    <t>김정희 / 권혜경</t>
-  </si>
-  <si>
-    <t>석소현 / 김명신</t>
+    <t>신성희,백영숙</t>
+  </si>
+  <si>
+    <t>배나영,김인애,심인숙</t>
+  </si>
+  <si>
+    <t>김정희,권혜경</t>
+  </si>
+  <si>
+    <t>석소현,김명신</t>
   </si>
   <si>
     <t>강영미</t>
@@ -12553,19 +12553,19 @@
     <t>노진아</t>
   </si>
   <si>
-    <t>구인성 / 이지희</t>
+    <t>구인성,이지희</t>
   </si>
   <si>
     <t>강현아</t>
   </si>
   <si>
-    <t>정환욱 / 김웅현</t>
-  </si>
-  <si>
-    <t>최수연 / 김웅현</t>
-  </si>
-  <si>
-    <t>이수빈 / 김민주</t>
+    <t>정환욱,김웅현</t>
+  </si>
+  <si>
+    <t>최수연,김웅현</t>
+  </si>
+  <si>
+    <t>이수빈,김민주</t>
   </si>
   <si>
     <t>김현수</t>
@@ -12592,34 +12592,34 @@
     <t>심혜경</t>
   </si>
   <si>
-    <t>이홍재 / 강지혜</t>
-  </si>
-  <si>
-    <t>송이슬 / 김진원</t>
-  </si>
-  <si>
-    <t>김지혜 / 최지원</t>
-  </si>
-  <si>
-    <t>안병주 / 정향숙</t>
-  </si>
-  <si>
-    <t>최경자 / 김용철</t>
-  </si>
-  <si>
-    <t>정진한 / 안병주</t>
-  </si>
-  <si>
-    <t>유가원 / 한신애</t>
-  </si>
-  <si>
-    <t>김영미 / 이수윤</t>
-  </si>
-  <si>
-    <t>윤서진 / 이상로</t>
-  </si>
-  <si>
-    <t>황다미 / 김지영</t>
+    <t>이홍재,강지혜</t>
+  </si>
+  <si>
+    <t>송이슬,김진원</t>
+  </si>
+  <si>
+    <t>김지혜,최지원</t>
+  </si>
+  <si>
+    <t>안병주,정향숙</t>
+  </si>
+  <si>
+    <t>최경자,김용철</t>
+  </si>
+  <si>
+    <t>정진한,안병주</t>
+  </si>
+  <si>
+    <t>유가원,한신애</t>
+  </si>
+  <si>
+    <t>김영미,이수윤</t>
+  </si>
+  <si>
+    <t>윤서진,이상로</t>
+  </si>
+  <si>
+    <t>황다미,김지영</t>
   </si>
   <si>
     <t>김홍유</t>
@@ -12721,7 +12721,7 @@
     <t>Price Kevin</t>
   </si>
   <si>
-    <t>Park, Jenny</t>
+    <t>Park,Jenny</t>
   </si>
   <si>
     <t>Stephen Neil Mangan</t>
@@ -12742,7 +12742,7 @@
     <t>Gregory Alan Napp</t>
   </si>
   <si>
-    <t>Bagley, Jonathan Ross</t>
+    <t>Bagley,Jonathan Ross</t>
   </si>
   <si>
     <t>차성연</t>
@@ -12814,10 +12814,10 @@
     <t>김숙이</t>
   </si>
   <si>
-    <t>이은옥 / 이효정</t>
-  </si>
-  <si>
-    <t>김선광 / 정지훈</t>
+    <t>이은옥,이효정</t>
+  </si>
+  <si>
+    <t>김선광,정지훈</t>
   </si>
   <si>
     <t>전천후</t>
@@ -12943,7 +12943,7 @@
     <t>박희제</t>
   </si>
   <si>
-    <t>박희제 / 정고운</t>
+    <t>박희제,정고운</t>
   </si>
   <si>
     <t>김중백</t>
@@ -13072,7 +13072,7 @@
     <t>조지영</t>
   </si>
   <si>
-    <t>이현정 / 김준하</t>
+    <t>이현정,김준하</t>
   </si>
   <si>
     <t>권영훈</t>
@@ -13120,7 +13120,7 @@
     <t>최미란</t>
   </si>
   <si>
-    <t>정자용 / 임윤숙 / 장윤혁 / 김준태</t>
+    <t>정자용,임윤숙,장윤혁,김준태</t>
   </si>
   <si>
     <t>제유진</t>
@@ -13165,22 +13165,22 @@
     <t>전효훈</t>
   </si>
   <si>
-    <t>조정제 / 박재훈 / 안현종 / 박증석 / 이선 / 박용식</t>
-  </si>
-  <si>
-    <t>윤경식 / 하주헌 / 강인숙 / 최원재 / 오범석</t>
-  </si>
-  <si>
-    <t>김효종 / 동석호 / 주광로 / 장재영 / 차재명 / 신현필 / 이창균 / 전정원 / 김정욱 / 곽민섭 / 윤진영</t>
-  </si>
-  <si>
-    <t>임현정 / 손일석 / 조진만 / 김수중 / 임윤숙 / 김우식 / 안형준 / 김원 / 김진배 / 권세환 / 진은선 / 조진현 / 박창범 / 홍일기 / 황희정 / 우종신 / 전진만 / 이정명 / 정혜문</t>
-  </si>
-  <si>
-    <t>손일석 / 조진만 / 김수중 / 김우식 / 김원 / 김진배 / 진은선 / 박창범 / 황희정 / 우종신 / 이정명 / 정혜문</t>
-  </si>
-  <si>
-    <t>박명재 / 최천웅 / 신원철 / 김이형 / 공문규 / 김정임 / 신소연 / 이승현 / 장복순 / 이한나 / 유지홍 / 김홍준</t>
+    <t>조정제,박재훈,안현종,박증석,이선,박용식</t>
+  </si>
+  <si>
+    <t>윤경식,하주헌,강인숙,최원재,오범석</t>
+  </si>
+  <si>
+    <t>김효종,동석호,주광로,장재영,차재명,신현필,이창균,전정원,김정욱,곽민섭,윤진영</t>
+  </si>
+  <si>
+    <t>임현정,손일석,조진만,김수중,임윤숙,김우식,안형준,김원,김진배,권세환,진은선,조진현,박창범,홍일기,황희정,우종신,전진만,이정명,정혜문</t>
+  </si>
+  <si>
+    <t>손일석,조진만,김수중,김우식,김원,김진배,진은선,박창범,황희정,우종신,이정명,정혜문</t>
+  </si>
+  <si>
+    <t>박명재,최천웅,신원철,김이형,공문규,김정임,신소연,이승현,장복순,이한나,유지홍,김홍준</t>
   </si>
   <si>
     <t>김경수</t>
@@ -13189,40 +13189,40 @@
     <t>박해정</t>
   </si>
   <si>
-    <t>최중명 / 오인환</t>
-  </si>
-  <si>
-    <t>윤태영 / 오인환</t>
-  </si>
-  <si>
-    <t>최봉근 / 오인환</t>
-  </si>
-  <si>
-    <t>오인환 / 오창모</t>
-  </si>
-  <si>
-    <t>정주원 / 조세형 / 박용식</t>
-  </si>
-  <si>
-    <t>김영미 / 조세형 / 박용식</t>
-  </si>
-  <si>
-    <t>박증석 / 조세형 / 박용식</t>
-  </si>
-  <si>
-    <t>안현종 / 조세형 / 박용식</t>
-  </si>
-  <si>
-    <t>김자은 / 이기자</t>
-  </si>
-  <si>
-    <t>박해정 / 김자은</t>
-  </si>
-  <si>
-    <t>강인숙 / 김자은</t>
-  </si>
-  <si>
-    <t>김자은 / 김도경</t>
+    <t>최중명,오인환</t>
+  </si>
+  <si>
+    <t>윤태영,오인환</t>
+  </si>
+  <si>
+    <t>최봉근,오인환</t>
+  </si>
+  <si>
+    <t>오인환,오창모</t>
+  </si>
+  <si>
+    <t>정주원,조세형,박용식</t>
+  </si>
+  <si>
+    <t>김영미,조세형,박용식</t>
+  </si>
+  <si>
+    <t>박증석,조세형,박용식</t>
+  </si>
+  <si>
+    <t>안현종,조세형,박용식</t>
+  </si>
+  <si>
+    <t>김자은,이기자</t>
+  </si>
+  <si>
+    <t>박해정,김자은</t>
+  </si>
+  <si>
+    <t>강인숙,김자은</t>
+  </si>
+  <si>
+    <t>김자은,김도경</t>
   </si>
   <si>
     <t>신제원</t>
@@ -13246,10 +13246,10 @@
     <t>김동현</t>
   </si>
   <si>
-    <t>김승림 / ..</t>
-  </si>
-  <si>
-    <t>이수범 / 윤혜현 / 윤지환 / 남궁영 / 황조혜 / 정라나 / 김진영 / 배소영</t>
+    <t>김승림,..</t>
+  </si>
+  <si>
+    <t>이수범,윤혜현,윤지환,남궁영,황조혜,정라나,김진영,배소영</t>
   </si>
   <si>
     <t>신영미</t>
@@ -13471,7 +13471,7 @@
     <t>한혜주</t>
   </si>
   <si>
-    <t>윤지환 / 이소윤</t>
+    <t>윤지환,이소윤</t>
   </si>
   <si>
     <t>유재호</t>
@@ -13486,7 +13486,7 @@
     <t>안주석</t>
   </si>
   <si>
-    <t>윤지환 / 이용찬</t>
+    <t>윤지환,이용찬</t>
   </si>
   <si>
     <t>송경희</t>
@@ -13723,25 +13723,25 @@
     <t>김권일</t>
   </si>
   <si>
-    <t>Ramchandra Balaji Pode / 김영덕</t>
+    <t>Ramchandra Balaji Pode,김영덕</t>
   </si>
   <si>
     <t>송경우</t>
   </si>
   <si>
-    <t>신기순 / 한창석</t>
-  </si>
-  <si>
-    <t>강호정 / 임성열</t>
-  </si>
-  <si>
-    <t>이재열 / 임성열</t>
-  </si>
-  <si>
-    <t>김주훈 / 임성열</t>
-  </si>
-  <si>
-    <t>정민석 / 구현주</t>
+    <t>신기순,한창석</t>
+  </si>
+  <si>
+    <t>강호정,임성열</t>
+  </si>
+  <si>
+    <t>이재열,임성열</t>
+  </si>
+  <si>
+    <t>김주훈,임성열</t>
+  </si>
+  <si>
+    <t>정민석,구현주</t>
   </si>
   <si>
     <t>임성열</t>
@@ -13756,22 +13756,22 @@
     <t>하상수</t>
   </si>
   <si>
-    <t>정진모 / 육순형</t>
+    <t>정진모,육순형</t>
   </si>
   <si>
     <t>이수준</t>
   </si>
   <si>
-    <t>신기순 / 배진우</t>
-  </si>
-  <si>
-    <t>임지우 / 양지은</t>
-  </si>
-  <si>
-    <t>송재규 / 양지은</t>
-  </si>
-  <si>
-    <t>임성열 / 양지은</t>
+    <t>신기순,배진우</t>
+  </si>
+  <si>
+    <t>임지우,양지은</t>
+  </si>
+  <si>
+    <t>송재규,양지은</t>
+  </si>
+  <si>
+    <t>임성열,양지은</t>
   </si>
   <si>
     <t>강대훈</t>
@@ -13807,19 +13807,19 @@
     <t>고정환</t>
   </si>
   <si>
-    <t>유건호 / 안정선</t>
+    <t>유건호,안정선</t>
   </si>
   <si>
     <t>김명호</t>
   </si>
   <si>
-    <t>이성재 / 김광우</t>
-  </si>
-  <si>
-    <t>정민석 / 박승민 / 강호정</t>
-  </si>
-  <si>
-    <t>정민석 / 박승민 / WALKER BRIGHT JAMES</t>
+    <t>이성재,김광우</t>
+  </si>
+  <si>
+    <t>정민석,박승민,강호정</t>
+  </si>
+  <si>
+    <t>정민석,박승민,WALKER BRIGHT JAMES</t>
   </si>
   <si>
     <t>권장혁</t>
@@ -13858,19 +13858,19 @@
     <t>주의종</t>
   </si>
   <si>
-    <t>김진교 / Baye Boucar Diouf</t>
+    <t>김진교,Baye Boucar Diouf</t>
   </si>
   <si>
     <t>이상준</t>
   </si>
   <si>
-    <t>이재열 / 이제승</t>
-  </si>
-  <si>
-    <t>박승민 / 이제승</t>
-  </si>
-  <si>
-    <t>정민석 / 이제승</t>
+    <t>이재열,이제승</t>
+  </si>
+  <si>
+    <t>박승민,이제승</t>
+  </si>
+  <si>
+    <t>정민석,이제승</t>
   </si>
   <si>
     <t>윤순옥</t>
@@ -13900,7 +13900,7 @@
     <t>지상현</t>
   </si>
   <si>
-    <t>공우석 / 다나카유키야</t>
+    <t>공우석,다나카유키야</t>
   </si>
   <si>
     <t>김희수</t>
@@ -13921,13 +13921,13 @@
     <t>박창훈</t>
   </si>
   <si>
-    <t>김영동 / Ramchandra Balaji Pode</t>
-  </si>
-  <si>
-    <t>김광우 / 김권일</t>
-  </si>
-  <si>
-    <t>구현주 / 하상수</t>
+    <t>김영동,Ramchandra Balaji Pode</t>
+  </si>
+  <si>
+    <t>김광우,김권일</t>
+  </si>
+  <si>
+    <t>구현주,하상수</t>
   </si>
   <si>
     <t>권창욱</t>
@@ -13939,7 +13939,7 @@
     <t>김연정</t>
   </si>
   <si>
-    <t>신성희 / 장진주</t>
+    <t>신성희,장진주</t>
   </si>
   <si>
     <t>이석준</t>
@@ -13960,88 +13960,88 @@
     <t>이익균</t>
   </si>
   <si>
-    <t>박종갑 / 이정배</t>
-  </si>
-  <si>
-    <t>민재영 / 한만수</t>
-  </si>
-  <si>
-    <t>나형민 / 김은영</t>
-  </si>
-  <si>
-    <t>정진용 / 김은형</t>
-  </si>
-  <si>
-    <t>나형민 / 서기환</t>
-  </si>
-  <si>
-    <t>박종갑 / 김민호</t>
-  </si>
-  <si>
-    <t>김동연 / 정환욱</t>
-  </si>
-  <si>
-    <t>허수영 / 정환욱</t>
-  </si>
-  <si>
-    <t>박미나 / 황수연</t>
-  </si>
-  <si>
-    <t>노송희 / 박봉수</t>
-  </si>
-  <si>
-    <t>김유빈 / 김동희</t>
-  </si>
-  <si>
-    <t>강문식 / 신민아</t>
-  </si>
-  <si>
-    <t>이배경 / 노송희</t>
-  </si>
-  <si>
-    <t>박미나 / 임다인</t>
-  </si>
-  <si>
-    <t>김동연 / 이우성</t>
-  </si>
-  <si>
-    <t>한영지 / 신정균</t>
-  </si>
-  <si>
-    <t>장세영 / 김지하</t>
-  </si>
-  <si>
-    <t>신민아 / 김정활</t>
-  </si>
-  <si>
-    <t>조재영 / 김지민</t>
-  </si>
-  <si>
-    <t>최수앙 / 김지민</t>
-  </si>
-  <si>
-    <t>노진아 / 이정형</t>
-  </si>
-  <si>
-    <t>노진아 / 양상근</t>
-  </si>
-  <si>
-    <t>최수앙 / 문소현</t>
-  </si>
-  <si>
-    <t>조재영 / 차슬아</t>
+    <t>박종갑,이정배</t>
+  </si>
+  <si>
+    <t>민재영,한만수</t>
+  </si>
+  <si>
+    <t>나형민,김은영</t>
+  </si>
+  <si>
+    <t>정진용,김은형</t>
+  </si>
+  <si>
+    <t>나형민,서기환</t>
+  </si>
+  <si>
+    <t>박종갑,김민호</t>
+  </si>
+  <si>
+    <t>김동연,정환욱</t>
+  </si>
+  <si>
+    <t>허수영,정환욱</t>
+  </si>
+  <si>
+    <t>박미나,황수연</t>
+  </si>
+  <si>
+    <t>노송희,박봉수</t>
+  </si>
+  <si>
+    <t>김유빈,김동희</t>
+  </si>
+  <si>
+    <t>강문식,신민아</t>
+  </si>
+  <si>
+    <t>이배경,노송희</t>
+  </si>
+  <si>
+    <t>박미나,임다인</t>
+  </si>
+  <si>
+    <t>김동연,이우성</t>
+  </si>
+  <si>
+    <t>한영지,신정균</t>
+  </si>
+  <si>
+    <t>장세영,김지하</t>
+  </si>
+  <si>
+    <t>신민아,김정활</t>
+  </si>
+  <si>
+    <t>조재영,김지민</t>
+  </si>
+  <si>
+    <t>최수앙,김지민</t>
+  </si>
+  <si>
+    <t>노진아,이정형</t>
+  </si>
+  <si>
+    <t>노진아,양상근</t>
+  </si>
+  <si>
+    <t>최수앙,문소현</t>
+  </si>
+  <si>
+    <t>조재영,차슬아</t>
   </si>
   <si>
     <t>정주이</t>
   </si>
   <si>
-    <t>정명훈 / 이종희 / 강지혜</t>
+    <t>정명훈,이종희,강지혜</t>
   </si>
   <si>
     <t>박혜진</t>
   </si>
   <si>
-    <t>부영민 / 이경진</t>
+    <t>부영민,이경진</t>
   </si>
   <si>
     <t>채윤병</t>
@@ -14050,16 +14050,16 @@
     <t>조선희</t>
   </si>
   <si>
-    <t>정명훈 / 봉정민 / 김수현</t>
-  </si>
-  <si>
-    <t>김주빈 / 임성옥 / 박소현</t>
-  </si>
-  <si>
-    <t>백주미 / 홍경화 / 한신애</t>
-  </si>
-  <si>
-    <t>김지영 / 유난희</t>
+    <t>정명훈,봉정민,김수현</t>
+  </si>
+  <si>
+    <t>김주빈,임성옥,박소현</t>
+  </si>
+  <si>
+    <t>백주미,홍경화,한신애</t>
+  </si>
+  <si>
+    <t>김지영,유난희</t>
   </si>
   <si>
     <t>김동건</t>
@@ -14230,52 +14230,52 @@
     <t>조영욱</t>
   </si>
   <si>
-    <t>함대현 / 김영덕</t>
-  </si>
-  <si>
-    <t>김태중 / 정주원</t>
-  </si>
-  <si>
-    <t>박찬 / 김진교</t>
-  </si>
-  <si>
-    <t>정준양 / 이은걸</t>
-  </si>
-  <si>
-    <t>유건호 / 박기숙</t>
-  </si>
-  <si>
-    <t>김영동 / 윤순옥</t>
-  </si>
-  <si>
-    <t>조세형 / 김도경</t>
-  </si>
-  <si>
-    <t>김낙우 / 윤형문</t>
-  </si>
-  <si>
-    <t>이석근 / 김경숙</t>
-  </si>
-  <si>
-    <t>김성현 / 고정환</t>
+    <t>함대현,김영덕</t>
+  </si>
+  <si>
+    <t>김태중,정주원</t>
+  </si>
+  <si>
+    <t>박찬,김진교</t>
+  </si>
+  <si>
+    <t>정준양,이은걸</t>
+  </si>
+  <si>
+    <t>유건호,박기숙</t>
+  </si>
+  <si>
+    <t>김영동,윤순옥</t>
+  </si>
+  <si>
+    <t>조세형,김도경</t>
+  </si>
+  <si>
+    <t>김낙우,윤형문</t>
+  </si>
+  <si>
+    <t>이석근,김경숙</t>
+  </si>
+  <si>
+    <t>김성현,고정환</t>
   </si>
   <si>
     <t>박승준</t>
   </si>
   <si>
-    <t>김자은 / 정의헌</t>
-  </si>
-  <si>
-    <t>김영동 / 이성재</t>
-  </si>
-  <si>
-    <t>유순지 / 원창연</t>
-  </si>
-  <si>
-    <t>다나카유키야 / 하상수</t>
-  </si>
-  <si>
-    <t>신기순 / 송재규</t>
+    <t>김자은,정의헌</t>
+  </si>
+  <si>
+    <t>김영동,이성재</t>
+  </si>
+  <si>
+    <t>유순지,원창연</t>
+  </si>
+  <si>
+    <t>다나카유키야,하상수</t>
+  </si>
+  <si>
+    <t>신기순,송재규</t>
   </si>
   <si>
     <t>정우탁</t>
@@ -14587,10 +14587,10 @@
     <t>송유레</t>
   </si>
   <si>
-    <t>박윤재 / 김양진 / 이은영</t>
-  </si>
-  <si>
-    <t>조영욱 / 이병태 / 전호근 / 김예진 / 허유미</t>
+    <t>박윤재,김양진,이은영</t>
+  </si>
+  <si>
+    <t>조영욱,이병태,전호근,김예진,허유미</t>
   </si>
   <si>
     <t>신진숙</t>
@@ -14743,19 +14743,19 @@
     <t>장민희</t>
   </si>
   <si>
-    <t>백유상 / 장우창</t>
+    <t>백유상,장우창</t>
   </si>
   <si>
     <t>박성규</t>
   </si>
   <si>
-    <t>이경태 / 최진우</t>
-  </si>
-  <si>
-    <t>김종호 / 김남중</t>
-  </si>
-  <si>
-    <t>김종복 / 김미자</t>
+    <t>이경태,최진우</t>
+  </si>
+  <si>
+    <t>김종호,김남중</t>
+  </si>
+  <si>
+    <t>김종복,김미자</t>
   </si>
   <si>
     <t>김석</t>
@@ -14767,7 +14767,7 @@
     <t>유정완</t>
   </si>
   <si>
-    <t>김종복 / 김정수</t>
+    <t>김종복,김정수</t>
   </si>
   <si>
     <t>김정수</t>
@@ -14992,37 +14992,37 @@
     <t>박상경</t>
   </si>
   <si>
-    <t>장문석 / 장형진 / 이석근</t>
-  </si>
-  <si>
-    <t>이보연 / 유은희 / 이종민 / 정민형 / 설현주 / 권병수 / 김영선</t>
-  </si>
-  <si>
-    <t>김창주 / 조영욱 / 김영미 / 조세형 / 진영호 / 박강식 / 이병대 / 김성현</t>
-  </si>
-  <si>
-    <t>나영호 / 한미영 / 심계식 / 윤경림 / 박영실 / 최선희 / 윤회수 / 최용성 / 이은혜 / 정성훈</t>
-  </si>
-  <si>
-    <t>이상목 / 이길연 / 이석환 / 주선형 / 송정윤 / 안형준 / 김범수 / 조진현 / 박원서 / 민선영 / 한상아 / 장혜경</t>
-  </si>
-  <si>
-    <t>신제원 / 강상욱</t>
-  </si>
-  <si>
-    <t>윤경원 / 임동순 / 김정태</t>
-  </si>
-  <si>
-    <t>이경태 / 이종길</t>
-  </si>
-  <si>
-    <t>김남중 / 서혜선 / 이상민</t>
-  </si>
-  <si>
-    <t>심범상 / 박지나 / 박한솔</t>
-  </si>
-  <si>
-    <t>김선광 / 김한겸</t>
+    <t>장문석,장형진,이석근</t>
+  </si>
+  <si>
+    <t>이보연,유은희,이종민,정민형,설현주,권병수,김영선</t>
+  </si>
+  <si>
+    <t>김창주,조영욱,김영미,조세형,진영호,박강식,이병대,김성현</t>
+  </si>
+  <si>
+    <t>나영호,한미영,심계식,윤경림,박영실,최선희,윤회수,최용성,이은혜,정성훈</t>
+  </si>
+  <si>
+    <t>이상목,이길연,이석환,주선형,송정윤,안형준,김범수,조진현,박원서,민선영,한상아,장혜경</t>
+  </si>
+  <si>
+    <t>신제원,강상욱</t>
+  </si>
+  <si>
+    <t>윤경원,임동순,김정태</t>
+  </si>
+  <si>
+    <t>이경태,이종길</t>
+  </si>
+  <si>
+    <t>김남중,서혜선,이상민</t>
+  </si>
+  <si>
+    <t>심범상,박지나,박한솔</t>
+  </si>
+  <si>
+    <t>김선광,김한겸</t>
   </si>
   <si>
     <t>전공필수(04)</t>
@@ -22178,7 +22178,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L2361"/>
+  <dimension ref="A1:L2362"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -106220,6 +106220,17 @@
         <v>6981</v>
       </c>
     </row>
+    <row r="2362" spans="1:12">
+      <c r="A2362" s="1">
+        <v>2360</v>
+      </c>
+      <c r="B2362" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2362" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/1차_가공/경희대학교 서울캠퍼스 22년 1학기 1차 가공 완료.xlsx
+++ b/1차_가공/경희대학교 서울캠퍼스 22년 1학기 1차 가공 완료.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20094" uniqueCount="7269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20092" uniqueCount="7269">
   <si>
     <t>대학교명</t>
   </si>
@@ -22178,7 +22178,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L2362"/>
+  <dimension ref="A1:L2361"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -106220,17 +106220,6 @@
         <v>6981</v>
       </c>
     </row>
-    <row r="2362" spans="1:12">
-      <c r="A2362" s="1">
-        <v>2360</v>
-      </c>
-      <c r="B2362" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2362" t="s">
-        <v>12</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
